--- a/ABSoutputByDate.xlsx
+++ b/ABSoutputByDate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="28">
   <si>
     <t>Date</t>
   </si>
@@ -34,16 +34,70 @@
     <t>Sum</t>
   </si>
   <si>
+    <t>万信-磐石035号002</t>
+  </si>
+  <si>
+    <t>万信-基础设施建设信托基金031号001</t>
+  </si>
+  <si>
+    <t>万信-基础设施建设信托基金020号001</t>
+  </si>
+  <si>
+    <t>万信-基础设施建设信托基金019号001</t>
+  </si>
+  <si>
+    <t>万信-基础设施建设信托基金046号001</t>
+  </si>
+  <si>
+    <t>万信-资产流动类信托基金002号001</t>
+  </si>
+  <si>
+    <t>万信-资产流动类信托基金002号002</t>
+  </si>
+  <si>
+    <t>万信-磐石024号001</t>
+  </si>
+  <si>
     <t>万信-基础设施建设信托基金023号001</t>
   </si>
   <si>
     <t>万信-基础设施建设信托基金023号002</t>
   </si>
   <si>
-    <t>万信-基础设施建设信托基金020号001</t>
-  </si>
-  <si>
-    <t>万信-基础设施建设信托基金019号001</t>
+    <t>万信-磐石026号001</t>
+  </si>
+  <si>
+    <t>万信-磐石025号001</t>
+  </si>
+  <si>
+    <t>万信-磐石027号001</t>
+  </si>
+  <si>
+    <t>万信-资产流动类信托基金002号003</t>
+  </si>
+  <si>
+    <t>万信-磐石030号001</t>
+  </si>
+  <si>
+    <t>万信-磐石036号001</t>
+  </si>
+  <si>
+    <t>万信-磐石037号001</t>
+  </si>
+  <si>
+    <t>万信-磐石041号001</t>
+  </si>
+  <si>
+    <t>万信-磐石043号001</t>
+  </si>
+  <si>
+    <t>万信-磐石042号001</t>
+  </si>
+  <si>
+    <t>万信-磐石040号001</t>
+  </si>
+  <si>
+    <t>万信-磐石028号001</t>
   </si>
 </sst>
 </file>
@@ -395,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G67"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -425,105 +479,105 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>40179</v>
+        <v>42633</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.1</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>41424.65753424657</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>41424.65753424657</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
-        <v>32</v>
+        <v>52</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>40544</v>
+        <v>42634</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>2000000</v>
+        <v>94931.50684931508</v>
       </c>
       <c r="G3" t="n">
-        <v>2000000</v>
+        <v>94931.50684931508</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>40909</v>
+        <v>42638</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>2000000</v>
+        <v>120326.5753424658</v>
       </c>
       <c r="G4" t="n">
-        <v>2000000</v>
+        <v>120326.5753424658</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>41275</v>
+        <v>42659</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1</v>
+        <v>0.102</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2005479.452054794</v>
+        <v>69611.50684931508</v>
       </c>
       <c r="G5" t="n">
-        <v>2005479.452054794</v>
+        <v>69611.50684931508</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
-        <v>45</v>
+        <v>62</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>41640</v>
+        <v>42672</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D6" t="n">
         <v>0.1</v>
@@ -532,90 +586,90 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>116712.3287671233</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>116712.3287671233</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
-        <v>35</v>
+        <v>124</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>41640</v>
+        <v>42674</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="F7" t="n">
-        <v>2000000</v>
+        <v>550356.1643835617</v>
       </c>
       <c r="G7" t="n">
-        <v>2000000</v>
+        <v>30550356.16438356</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="1" t="n">
-        <v>20</v>
+        <v>130</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>41640</v>
+        <v>42681</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>0.103</v>
+        <v>0.108</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1020821.917808219</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>51020821.91780822</v>
       </c>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="1" t="n">
-        <v>46</v>
+        <v>66</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>41699</v>
+        <v>42701</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>484931.5068493151</v>
+        <v>131671.2328767123</v>
       </c>
       <c r="G9" t="n">
-        <v>484931.5068493151</v>
+        <v>131671.2328767123</v>
       </c>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="1" t="n">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>41760</v>
+        <v>42702</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
         <v>0.1</v>
@@ -624,21 +678,21 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>501369.8630136986</v>
+        <v>493150.6849315069</v>
       </c>
       <c r="G10" t="n">
-        <v>501369.8630136986</v>
+        <v>493150.6849315069</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="n">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>41821</v>
+        <v>42702</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D11" t="n">
         <v>0.1</v>
@@ -647,294 +701,294 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>501369.8630136986</v>
+        <v>739726.0273972603</v>
       </c>
       <c r="G11" t="n">
-        <v>501369.8630136986</v>
+        <v>739726.0273972603</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="n">
-        <v>21</v>
+        <v>74</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>41821</v>
+        <v>42707</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D12" t="n">
-        <v>0.103</v>
+        <v>0.075</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>837658.0821917808</v>
+        <v>497773.9726027397</v>
       </c>
       <c r="G12" t="n">
-        <v>837658.0821917808</v>
+        <v>497773.9726027397</v>
       </c>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="1" t="n">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>41883</v>
+        <v>42707</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>509589.0410958904</v>
+        <v>765205.4794520548</v>
       </c>
       <c r="G13" t="n">
-        <v>509589.0410958904</v>
+        <v>765205.4794520548</v>
       </c>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="1" t="n">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>41944</v>
+        <v>42708</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>501369.8630136986</v>
+        <v>591780.8219178083</v>
       </c>
       <c r="G14" t="n">
-        <v>501369.8630136986</v>
+        <v>591780.8219178083</v>
       </c>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="1" t="n">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>42005</v>
+        <v>42709</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1</v>
+        <v>0.108</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>6700000</v>
       </c>
       <c r="F15" t="n">
-        <v>501369.8630136986</v>
+        <v>192299.1780821918</v>
       </c>
       <c r="G15" t="n">
-        <v>501369.8630136986</v>
+        <v>6892299.178082191</v>
       </c>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="1" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>42005</v>
+        <v>42709</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>0.1</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>20000000</v>
       </c>
       <c r="F16" t="n">
-        <v>2000000</v>
+        <v>38356.16438356164</v>
       </c>
       <c r="G16" t="n">
-        <v>2000000</v>
+        <v>20038356.16438356</v>
       </c>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="1" t="n">
-        <v>22</v>
+        <v>88</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>42005</v>
+        <v>42715</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="D17" t="n">
-        <v>0.103</v>
+        <v>0.075</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>851541.9178082192</v>
+        <v>575671.2328767123</v>
       </c>
       <c r="G17" t="n">
-        <v>851541.9178082192</v>
+        <v>575671.2328767123</v>
       </c>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="1" t="n">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>42005</v>
+        <v>42716</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D18" t="n">
-        <v>0.102</v>
+        <v>0.1</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>115068.4931506849</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30115068.49315068</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="1" t="n">
-        <v>52</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>42064</v>
+        <v>42724</v>
       </c>
       <c r="C19" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>484931.5068493151</v>
+        <v>584241.0958904109</v>
       </c>
       <c r="G19" t="n">
-        <v>484931.5068493151</v>
+        <v>584241.0958904109</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="1" t="n">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>42095</v>
+        <v>42725</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" t="n">
-        <v>0.102</v>
+        <v>0.105</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>133298.6301369863</v>
+        <v>392671.2328767123</v>
       </c>
       <c r="G20" t="n">
-        <v>133298.6301369863</v>
+        <v>392671.2328767123</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="1" t="n">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>42125</v>
+        <v>42729</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D21" t="n">
-        <v>0.1</v>
+        <v>0.103</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>501369.8630136986</v>
+        <v>421143.0136986302</v>
       </c>
       <c r="G21" t="n">
-        <v>501369.8630136986</v>
+        <v>421143.0136986302</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="1" t="n">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>42186</v>
+        <v>42729</v>
       </c>
       <c r="C22" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>0.1</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>7100000</v>
       </c>
       <c r="F22" t="n">
-        <v>501369.8630136986</v>
+        <v>110876.7123287671</v>
       </c>
       <c r="G22" t="n">
-        <v>501369.8630136986</v>
+        <v>7210876.712328767</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="1" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>42186</v>
+        <v>42740</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D23" t="n">
-        <v>0.103</v>
+        <v>0.076</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>837658.0821917808</v>
+        <v>628988.493150685</v>
       </c>
       <c r="G23" t="n">
-        <v>837658.0821917808</v>
+        <v>628988.493150685</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="1" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>42186</v>
+        <v>42751</v>
       </c>
       <c r="C24" t="s">
         <v>9</v>
@@ -946,110 +1000,110 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>134779.7260273973</v>
+        <v>136260.8219178082</v>
       </c>
       <c r="G24" t="n">
-        <v>134779.7260273973</v>
+        <v>136260.8219178082</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="1" t="n">
-        <v>55</v>
+        <v>109</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>42248</v>
+        <v>42756</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1</v>
+        <v>0.082</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>509589.0410958904</v>
+        <v>1138744.109589041</v>
       </c>
       <c r="G25" t="n">
-        <v>509589.0410958904</v>
+        <v>1138744.109589041</v>
       </c>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="1" t="n">
-        <v>3</v>
+        <v>117</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>42278</v>
+        <v>42762</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D26" t="n">
-        <v>0.102</v>
+        <v>0.076</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>136260.8219178082</v>
+        <v>1561643.835616438</v>
       </c>
       <c r="G26" t="n">
-        <v>136260.8219178082</v>
+        <v>1561643.835616438</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="1" t="n">
-        <v>56</v>
+        <v>113</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>42309</v>
+        <v>42768</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1</v>
+        <v>0.076</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>501369.8630136986</v>
+        <v>1299287.671232877</v>
       </c>
       <c r="G27" t="n">
-        <v>501369.8630136986</v>
+        <v>1299287.671232877</v>
       </c>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="1" t="n">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>42370</v>
+        <v>42772</v>
       </c>
       <c r="C28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D28" t="n">
-        <v>0.1</v>
+        <v>0.105</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="F28" t="n">
-        <v>2000000</v>
+        <v>202808.2191780822</v>
       </c>
       <c r="G28" t="n">
-        <v>2000000</v>
+        <v>15202808.21917808</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="1" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>42370</v>
+        <v>42807</v>
       </c>
       <c r="C29" t="s">
         <v>8</v>
@@ -1058,21 +1112,21 @@
         <v>0.103</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>16400000</v>
       </c>
       <c r="F29" t="n">
-        <v>851541.9178082192</v>
+        <v>360979.7260273973</v>
       </c>
       <c r="G29" t="n">
-        <v>851541.9178082192</v>
+        <v>16760979.7260274</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="1" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>42370</v>
+        <v>42807</v>
       </c>
       <c r="C30" t="s">
         <v>9</v>
@@ -1081,864 +1135,358 @@
         <v>0.102</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>5300000</v>
       </c>
       <c r="F30" t="n">
-        <v>136260.8219178082</v>
+        <v>82941.36986301369</v>
       </c>
       <c r="G30" t="n">
-        <v>136260.8219178082</v>
+        <v>5382941.369863014</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="1" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>42370</v>
+        <v>42904</v>
       </c>
       <c r="C31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>10000000</v>
       </c>
       <c r="F31" t="n">
-        <v>501369.8630136986</v>
+        <v>534575.3424657534</v>
       </c>
       <c r="G31" t="n">
-        <v>501369.8630136986</v>
+        <v>10534575.34246575</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="1" t="n">
-        <v>58</v>
+        <v>105</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>42430</v>
+        <v>42906</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="D32" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>493150.6849315069</v>
+        <v>906164.3835616439</v>
       </c>
       <c r="G32" t="n">
-        <v>493150.6849315069</v>
+        <v>906164.3835616439</v>
       </c>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="1" t="n">
-        <v>5</v>
+        <v>83</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>42461</v>
+        <v>42906</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
-        <v>0.102</v>
+        <v>0.075</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>134779.7260273973</v>
+        <v>1890863.01369863</v>
       </c>
       <c r="G33" t="n">
-        <v>134779.7260273973</v>
+        <v>1890863.01369863</v>
       </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="1" t="n">
-        <v>59</v>
+        <v>97</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>42491</v>
+        <v>42909</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D34" t="n">
-        <v>0.1</v>
+        <v>0.08</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>23800000</v>
       </c>
       <c r="F34" t="n">
-        <v>501369.8630136986</v>
+        <v>965041.0958904109</v>
       </c>
       <c r="G34" t="n">
-        <v>501369.8630136986</v>
+        <v>24765041.09589041</v>
       </c>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="1" t="n">
-        <v>25</v>
+        <v>67</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>42552</v>
+        <v>43066</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D35" t="n">
-        <v>0.103</v>
+        <v>0.075</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>7200000</v>
       </c>
       <c r="F35" t="n">
-        <v>842286.0273972603</v>
+        <v>540000</v>
       </c>
       <c r="G35" t="n">
-        <v>842286.0273972603</v>
+        <v>7740000</v>
       </c>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="1" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>42552</v>
+        <v>43072</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D36" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>39200000</v>
       </c>
       <c r="F36" t="n">
-        <v>501369.8630136986</v>
+        <v>2940000</v>
       </c>
       <c r="G36" t="n">
-        <v>501369.8630136986</v>
+        <v>42140000</v>
       </c>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="1" t="n">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>42552</v>
+        <v>43072</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" t="n">
-        <v>0.102</v>
+        <v>0.075</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>25500000</v>
       </c>
       <c r="F37" t="n">
-        <v>134779.7260273973</v>
+        <v>1912500</v>
       </c>
       <c r="G37" t="n">
-        <v>134779.7260273973</v>
+        <v>27412500</v>
       </c>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="1" t="n">
-        <v>61</v>
+        <v>79</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>42614</v>
+        <v>43073</v>
       </c>
       <c r="C38" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>30000000</v>
       </c>
       <c r="F38" t="n">
-        <v>509589.0410958904</v>
+        <v>2250000</v>
       </c>
       <c r="G38" t="n">
-        <v>509589.0410958904</v>
+        <v>32250000</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="1" t="n">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>42644</v>
+        <v>43080</v>
       </c>
       <c r="C39" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1</v>
+        <v>0.075</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>27200000</v>
       </c>
       <c r="F39" t="n">
-        <v>246575.3424657534</v>
+        <v>2040000</v>
       </c>
       <c r="G39" t="n">
-        <v>246575.3424657534</v>
+        <v>29240000</v>
       </c>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="n">
-        <v>8</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>42644</v>
+        <v>43087</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D40" t="n">
-        <v>0.102</v>
+        <v>0.075</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>31300000</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>1164102.739726027</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>32464102.73972603</v>
       </c>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="1" t="n">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>42644</v>
+        <v>43105</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1</v>
+        <v>0.076</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>23600000</v>
       </c>
       <c r="F41" t="n">
-        <v>1501369.863013699</v>
+        <v>1793600</v>
       </c>
       <c r="G41" t="n">
-        <v>1501369.863013699</v>
+        <v>25393600</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B42" s="2" t="n">
+        <v>43112</v>
+      </c>
+      <c r="C42" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="2" t="n">
-        <v>42644</v>
-      </c>
-      <c r="C42" t="s">
-        <v>8</v>
-      </c>
       <c r="D42" t="n">
-        <v>0.103</v>
+        <v>0.075</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>15000000</v>
       </c>
       <c r="F42" t="n">
-        <v>425770.9589041096</v>
+        <v>634931.506849315</v>
       </c>
       <c r="G42" t="n">
-        <v>425770.9589041096</v>
+        <v>15634931.50684932</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="1" t="n">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>42644</v>
+        <v>43121</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D43" t="n">
-        <v>0.102</v>
+        <v>0.082</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>35200000</v>
       </c>
       <c r="F43" t="n">
-        <v>136260.8219178082</v>
+        <v>2886400</v>
       </c>
       <c r="G43" t="n">
-        <v>136260.8219178082</v>
+        <v>38086400</v>
       </c>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="1" t="n">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>42675</v>
+        <v>43127</v>
       </c>
       <c r="C44" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D44" t="n">
-        <v>0.1</v>
+        <v>0.076</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>50000000</v>
       </c>
       <c r="F44" t="n">
-        <v>254794.5205479452</v>
+        <v>3800000</v>
       </c>
       <c r="G44" t="n">
-        <v>254794.5205479452</v>
+        <v>53800000</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="1" t="n">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>42736</v>
+        <v>43133</v>
       </c>
       <c r="C45" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="D45" t="n">
-        <v>0.1</v>
+        <v>0.076</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>40000000</v>
       </c>
       <c r="F45" t="n">
-        <v>501369.8630136986</v>
+        <v>3040000</v>
       </c>
       <c r="G45" t="n">
-        <v>501369.8630136986</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B46" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="C46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>136260.8219178082</v>
-      </c>
-      <c r="G46" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B47" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="C47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>504109.5890410959</v>
-      </c>
-      <c r="G47" t="n">
-        <v>504109.5890410959</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B48" s="2" t="n">
-        <v>42736</v>
-      </c>
-      <c r="C48" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>425770.9589041096</v>
-      </c>
-      <c r="G48" t="n">
-        <v>425770.9589041096</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="1" t="n">
-        <v>65</v>
-      </c>
-      <c r="B49" s="2" t="n">
-        <v>42795</v>
-      </c>
-      <c r="C49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E49" t="n">
-        <v>30000000</v>
-      </c>
-      <c r="F49" t="n">
-        <v>484931.5068493151</v>
-      </c>
-      <c r="G49" t="n">
-        <v>30484931.50684932</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B50" s="2" t="n">
-        <v>42826</v>
-      </c>
-      <c r="C50" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>133298.6301369863</v>
-      </c>
-      <c r="G50" t="n">
-        <v>133298.6301369863</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>42917</v>
-      </c>
-      <c r="C51" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0</v>
-      </c>
-      <c r="F51" t="n">
-        <v>837658.0821917808</v>
-      </c>
-      <c r="G51" t="n">
-        <v>837658.0821917808</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B52" s="2" t="n">
-        <v>42917</v>
-      </c>
-      <c r="C52" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0</v>
-      </c>
-      <c r="F52" t="n">
-        <v>134779.7260273973</v>
-      </c>
-      <c r="G52" t="n">
-        <v>134779.7260273973</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B53" s="2" t="n">
-        <v>43009</v>
-      </c>
-      <c r="C53" t="s">
-        <v>9</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0</v>
-      </c>
-      <c r="F53" t="n">
-        <v>136260.8219178082</v>
-      </c>
-      <c r="G53" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B54" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0</v>
-      </c>
-      <c r="F54" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G54" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B55" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="C55" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0</v>
-      </c>
-      <c r="F55" t="n">
-        <v>851541.9178082192</v>
-      </c>
-      <c r="G55" t="n">
-        <v>851541.9178082192</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B56" s="2" t="n">
-        <v>43101</v>
-      </c>
-      <c r="C56" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0</v>
-      </c>
-      <c r="F56" t="n">
-        <v>136260.8219178082</v>
-      </c>
-      <c r="G56" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B57" s="2" t="n">
-        <v>43191</v>
-      </c>
-      <c r="C57" t="s">
-        <v>9</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0</v>
-      </c>
-      <c r="F57" t="n">
-        <v>133298.6301369863</v>
-      </c>
-      <c r="G57" t="n">
-        <v>133298.6301369863</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B58" s="2" t="n">
-        <v>43282</v>
-      </c>
-      <c r="C58" t="s">
-        <v>9</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0</v>
-      </c>
-      <c r="F58" t="n">
-        <v>134779.7260273973</v>
-      </c>
-      <c r="G58" t="n">
-        <v>134779.7260273973</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B59" s="2" t="n">
-        <v>43282</v>
-      </c>
-      <c r="C59" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="E59" t="n">
-        <v>16400000</v>
-      </c>
-      <c r="F59" t="n">
-        <v>837658.0821917808</v>
-      </c>
-      <c r="G59" t="n">
-        <v>17237658.08219178</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B60" s="2" t="n">
-        <v>43374</v>
-      </c>
-      <c r="C60" t="s">
-        <v>9</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0</v>
-      </c>
-      <c r="F60" t="n">
-        <v>136260.8219178082</v>
-      </c>
-      <c r="G60" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B61" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="C61" t="s">
-        <v>9</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0</v>
-      </c>
-      <c r="F61" t="n">
-        <v>136260.8219178082</v>
-      </c>
-      <c r="G61" t="n">
-        <v>136260.8219178082</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B62" s="2" t="n">
-        <v>43466</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0</v>
-      </c>
-      <c r="F62" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G62" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B63" s="2" t="n">
-        <v>43556</v>
-      </c>
-      <c r="C63" t="s">
-        <v>9</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0</v>
-      </c>
-      <c r="F63" t="n">
-        <v>133298.6301369863</v>
-      </c>
-      <c r="G63" t="n">
-        <v>133298.6301369863</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B64" s="2" t="n">
-        <v>43647</v>
-      </c>
-      <c r="C64" t="s">
-        <v>9</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.102</v>
-      </c>
-      <c r="E64" t="n">
-        <v>5300000</v>
-      </c>
-      <c r="F64" t="n">
-        <v>134779.7260273973</v>
-      </c>
-      <c r="G64" t="n">
-        <v>5434779.726027397</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B65" s="2" t="n">
-        <v>43831</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0</v>
-      </c>
-      <c r="F65" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G65" t="n">
-        <v>2000000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B66" s="2" t="n">
-        <v>44197</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0</v>
-      </c>
-      <c r="F66" t="n">
-        <v>2005479.452054794</v>
-      </c>
-      <c r="G66" t="n">
-        <v>2005479.452054794</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B67" s="2" t="n">
-        <v>44562</v>
-      </c>
-      <c r="C67" t="s">
-        <v>6</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E67" t="n">
-        <v>20000000</v>
-      </c>
-      <c r="F67" t="n">
-        <v>2000000</v>
-      </c>
-      <c r="G67" t="n">
-        <v>22000000</v>
+        <v>43040000</v>
       </c>
     </row>
   </sheetData>
